--- a/biology/Écologie/Capacité_porteuse/Capacité_porteuse.xlsx
+++ b/biology/Écologie/Capacité_porteuse/Capacité_porteuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Capacit%C3%A9_porteuse</t>
+          <t>Capacité_porteuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La capacité porteuse (aussi appelée capacité de charge, capacité limite, capacité de soutien, capacité biotique ainsi que capacité de support au Québec et carrying capacity en anglais) en écologie est la taille maximale de la population d’un organisme qu’un milieu donné peut supporter. La simplicité de cette définition toutefois cache la complexité réelle du concept et de son application[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La capacité porteuse (aussi appelée capacité de charge, capacité limite, capacité de soutien, capacité biotique ainsi que capacité de support au Québec et carrying capacity en anglais) en écologie est la taille maximale de la population d’un organisme qu’un milieu donné peut supporter. La simplicité de cette définition toutefois cache la complexité réelle du concept et de son application.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Capacit%C3%A9_porteuse</t>
+          <t>Capacité_porteuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Écologie fondamentale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En écologie fondamentale, la capacité porteuse est généralement définie par la constante 
         K
@@ -569,7 +583,7 @@
 Cette équation est toutefois trop simpliste pour être d’une véritable utilité en écologie appliquée, confrontée à la complexité des systèmes naturels. Elle possède surtout une valeur heuristique en écologie fondamentale.
 Une deuxième définition de capacité porteuse, plus générale que la première, se formule ainsi : l’état d’équilibre de la population ou de la densité de population où le taux de natalité égale le taux de mortalité, celle-ci causée par des facteurs liés à la densité.
 Une troisième définition parfois en usage, encore plus générale que la seconde, définit la capacité porteuse comme un état stable à long terme d’une population donnée. Cette définition tient compte de l’immigration et de l’émigration, et les taux de mortalité et de natalité ne sont pas toujours équivalents. Toutefois, à long terme, la population a toujours une pente de zéro.
-Aucune de ces définitions de capacité porteuse en écologie fondamentale ne tient compte des interactions avec les autres espèces, soit par la prédation, le parasitisme, la compétition ou la maladie. Considérant les fluctuations inhérentes aux facteurs biotiques et abiotiques de la plupart des environnements naturels, définir la capacité porteuse par une taille statique de la population est simplificateur et utopique. En outre, ces définitions ne tiennent pas compte de l’évolution au cours du temps qui peut également influer sur l’abondance d’une population[1].
+Aucune de ces définitions de capacité porteuse en écologie fondamentale ne tient compte des interactions avec les autres espèces, soit par la prédation, le parasitisme, la compétition ou la maladie. Considérant les fluctuations inhérentes aux facteurs biotiques et abiotiques de la plupart des environnements naturels, définir la capacité porteuse par une taille statique de la population est simplificateur et utopique. En outre, ces définitions ne tiennent pas compte de l’évolution au cours du temps qui peut également influer sur l’abondance d’une population.
 </t>
         </is>
       </c>
@@ -580,7 +594,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Capacit%C3%A9_porteuse</t>
+          <t>Capacité_porteuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -598,7 +612,9 @@
           <t>Écologie appliquée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En écologie appliquée, on retient quatre définitions de capacité porteuse :
 La taille maximale stable de la population qu’un milieu donné peut supporter sans exploitation. Cette définition tire son origine de la constante 
@@ -626,7 +642,7 @@
  est aussi le point où le taux d’exploitation est nul. Le rendement équilibré maximal (MSY) se produit à 0,5
         K
     {\displaystyle K}
-. Le rendement économique équilibré maximal (MEY) correspond au profit net et se produit lorsque les pentes du coût et du rendement sont parallèles. Le rendement à l’équilibre à l’accès libre (OAE) se produit lorsque le profit brut équivaut au coût[1].
+. Le rendement économique équilibré maximal (MEY) correspond au profit net et se produit lorsque les pentes du coût et du rendement sont parallèles. Le rendement à l’équilibre à l’accès libre (OAE) se produit lorsque le profit brut équivaut au coût.
 </t>
         </is>
       </c>
